--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -119,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1141,6 +1141,3174 @@
         <v>3</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B452" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B453" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B454" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B455" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B456" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B457" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B458" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B459" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B460" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B461" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B462" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B463" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B464" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B465" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B466" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B467" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B468" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B476" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B477" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B478" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B479" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B480" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B494" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B496" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B499" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B500" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B501" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B502" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B503" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B504" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B505" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B506" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B507" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B508" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B509" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B510" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B511" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B512" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B513" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B514" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B515" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B516" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B517" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B518" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B519" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B520" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B521" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B522" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B523" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -119,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B883"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4309,6 +4309,2886 @@
         <v>3</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B524" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B525" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B526" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B527" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B528" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B529" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B530" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B531" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B532" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B533" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B534" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B535" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B536" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B537" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B538" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B539" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B540" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B541" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B542" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B543" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B544" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B545" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B546" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B547" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B548" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B549" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B550" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B554" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B555" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B556" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B557" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B558" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B559" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B560" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B561" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B562" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B563" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B564" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B565" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B566" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B567" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B568" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B569" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B570" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B571" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B572" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B573" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B574" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B575" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B576" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B577" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B578" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B579" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B580" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B581" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B582" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B583" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B584" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B585" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B586" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B635" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B636" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B637" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B638" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B639" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B640" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B641" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B642" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B643" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B644" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B645" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B646" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B647" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B648" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B649" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B650" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B651" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B652" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B653" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B654" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B655" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B656" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B657" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B658" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B659" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B660" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B661" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B662" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B663" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B664" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B665" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B666" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B667" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B668" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B669" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B670" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B671" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B672" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B673" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B674" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B675" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B676" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B677" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B678" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B679" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B680" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B681" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B682" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B683" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B684" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B685" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B686" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B687" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B688" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B689" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B690" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B691" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B692" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B693" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B694" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B695" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B696" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B697" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B698" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B699" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B700" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B701" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B702" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B703" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B704" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B705" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B706" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B707" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B708" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B709" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B710" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B711" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B712" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B713" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B714" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B715" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B716" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B717" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B718" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B719" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B720" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B721" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B722" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B723" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B724" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B725" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B726" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B727" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B728" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B729" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B730" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B731" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B732" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B733" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B734" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B735" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B736" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B737" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B738" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B739" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B740" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B741" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B742" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B743" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B744" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B745" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B746" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B747" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B748" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B749" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B750" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B751" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B752" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B753" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B754" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B755" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B756" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B757" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B758" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B759" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B760" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B761" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B762" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B763" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B764" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B765" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B766" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B767" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B768" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B769" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B770" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B771" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B772" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B773" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B774" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B775" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B776" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B777" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B778" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B779" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B780" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B781" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B782" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B783" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B784" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B785" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B786" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B787" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B788" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B789" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B790" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B791" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B792" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B793" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B794" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B795" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B796" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B797" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B798" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B799" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B800" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B801" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B802" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B803" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B804" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B805" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B806" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B807" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B808" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B809" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B810" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B811" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B812" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B813" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B814" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B815" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B816" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B817" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B818" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B819" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B820" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B821" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B822" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B823" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B824" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B825" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B826" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B827" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B828" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B829" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B830" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B831" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B832" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B833" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B834" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B835" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B836" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B837" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B838" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B839" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B840" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B841" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B842" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B843" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B844" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B845" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B846" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B847" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B848" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B849" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B850" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B851" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B852" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B853" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B854" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B855" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B856" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B857" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B858" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B859" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B860" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B861" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B862" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B863" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B864" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B865" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B866" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B867" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B868" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B869" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B870" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B871" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B872" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B873" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B874" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B875" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B876" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B877" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B878" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B879" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B880" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B881" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B882" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B883" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -119,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1861,6 +1861,870 @@
         <v>3</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -119,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2725,6 +2725,1014 @@
         <v>3</v>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -170,7 +170,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">

--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -429,8 +429,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="13.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">

--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>d74ff0ee8da3b9806b18c877dbf29bbde50b5bd8e4dad7a3a725000feb82e8f1</t>
+  </si>
+  <si>
+    <t>612affe356c7d72744f977e042a1f8262e3fc5c8b0b4602ff8b31990caf36092</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">

--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>612affe356c7d72744f977e042a1f8262e3fc5c8b0b4602ff8b31990caf36092</t>
+  </si>
+  <si>
+    <t>d0cd64b903a8addcc6824cc37550b28d2bfe4f477d5b85b097a6a327a4456e82</t>
   </si>
 </sst>
 </file>

--- a/OOPproj2002/src/pkg_camp/user_passwords.xlsx
+++ b/OOPproj2002/src/pkg_camp/user_passwords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>d74ff0ee8da3b9806b18c877dbf29bbde50b5bd8e4dad7a3a725000feb82e8f1</t>
-  </si>
-  <si>
-    <t>612affe356c7d72744f977e042a1f8262e3fc5c8b0b4602ff8b31990caf36092</t>
-  </si>
-  <si>
-    <t>d0cd64b903a8addcc6824cc37550b28d2bfe4f477d5b85b097a6a327a4456e82</t>
   </si>
 </sst>
 </file>
@@ -176,7 +170,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -248,7 +242,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
